--- a/config_12.01/shoping_config_cjj.xlsx
+++ b/config_12.01/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6878,10 +6878,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>二龙腾飞</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6894,741 +6890,745 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.4亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>9800000,300000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","60万小游戏币","阳光*8",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2980万金币","90万小游戏币","阳光*12",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一498元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万小游戏币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,2000000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一198元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万","50万小游戏币","抽奖券*30",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一98元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万","10万小游戏币","抽奖券*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一48元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万","3万小游戏币","抽奖券*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一20元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","1万小游戏币","抽奖券*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,10000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一6元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","3000小游戏币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元-1</t>
-  </si>
-  <si>
-    <t>聚划算8元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","2.4万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>824000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元-2</t>
-  </si>
-  <si>
-    <t>聚划算8元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","4.8万金币",</t>
-  </si>
-  <si>
-    <t>848000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算8元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","4.8万金币","0.8万",</t>
-  </si>
-  <si>
-    <t>856000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算38元-1</t>
-  </si>
-  <si>
-    <t>聚划算38元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"380万金币","11万金币",</t>
-  </si>
-  <si>
-    <t>3910000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算38元-2</t>
-  </si>
-  <si>
-    <t>聚划算38元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"380万金币","22.8万金币",</t>
-  </si>
-  <si>
-    <t>4028000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算38元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算38元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"380万金币","22.8万金币","3.8万",</t>
-  </si>
-  <si>
-    <t>4066000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元-1</t>
-  </si>
-  <si>
-    <t>聚划算98元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","29万金币",</t>
-  </si>
-  <si>
-    <t>10090000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元-2</t>
-  </si>
-  <si>
-    <t>聚划算98元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","58.8万金币",</t>
-  </si>
-  <si>
-    <t>10388000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算98元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","58.8万金币","9.8万",</t>
-  </si>
-  <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算198元-1</t>
-  </si>
-  <si>
-    <t>聚划算198元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","59万金币",</t>
-  </si>
-  <si>
-    <t>20390000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算198元-2</t>
-  </si>
-  <si>
-    <t>聚划算198元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","118.8万金币",</t>
-  </si>
-  <si>
-    <t>20988000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算198元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算198元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","118.8万金币","19.8万",</t>
-  </si>
-  <si>
-    <t>21186000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元-1</t>
-  </si>
-  <si>
-    <t>聚划算498元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","149万金币",</t>
-  </si>
-  <si>
-    <t>51290000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元-2</t>
-  </si>
-  <si>
-    <t>聚划算498元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","298.8万金币",</t>
-  </si>
-  <si>
-    <t>52788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算498元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","298.8万金币","49.8万",</t>
-  </si>
-  <si>
-    <t>53286000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元-1</t>
-  </si>
-  <si>
-    <t>聚划算998元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","299万金币",</t>
-  </si>
-  <si>
-    <t>102790000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元-2</t>
-  </si>
-  <si>
-    <t>聚划算998元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","598.8万金币",</t>
-  </si>
-  <si>
-    <t>105788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算998元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","598.8万金币","99.8万",</t>
-  </si>
-  <si>
-    <t>106786000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元-1</t>
-  </si>
-  <si>
-    <t>聚划算2498元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"24980万金币","749万金币",</t>
-  </si>
-  <si>
-    <t>257290000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元-2</t>
-  </si>
-  <si>
-    <t>聚划算2498元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"24980万金币","1498.8万金币",</t>
-  </si>
-  <si>
-    <t>264788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算2498元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"24980万金币","1498.8万金币","249.8万",</t>
-  </si>
-  <si>
-    <t>267286000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一本万利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>铂金礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,0</t>
-  </si>
-  <si>
-    <t>钻石礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>星耀礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10363,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10366,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10369,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10372,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10375,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10378,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10381,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"75万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","水滴*2","玩具锤*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3180000,2,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","水滴*3","玩具锤*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5380000,3,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","水滴*4","玩具锤*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,4,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","水滴*5","玩具锤*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>22180000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","水滴*6","玩具锤*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>32880000,6,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","水滴*7","玩具锤*7",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,7,7,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","水滴*8","玩具锤*8",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>54880000,8,8,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","水滴*10","玩具锤*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>64880000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","水滴*20","玩具锤*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>76880000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,400000,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,300000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,3,</t>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8602,7 +8602,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8750,6 +8750,9 @@
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F2" s="2">
+        <v>10330</v>
+      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -8830,6 +8833,9 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8910,6 +8916,9 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -8990,6 +8999,9 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9070,6 +9082,9 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9150,6 +9165,9 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9230,6 +9248,9 @@
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9310,6 +9331,9 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9391,7 +9415,9 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="60"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9475,7 +9501,9 @@
       <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -9559,7 +9587,6 @@
       <c r="E12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="60"/>
       <c r="H12" s="11" t="s">
         <v>44</v>
       </c>
@@ -9640,7 +9667,6 @@
       <c r="E13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="60"/>
       <c r="H13" s="11" t="s">
         <v>44</v>
       </c>
@@ -9721,7 +9747,6 @@
       <c r="E14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="60"/>
       <c r="H14" s="11" t="s">
         <v>44</v>
       </c>
@@ -9802,7 +9827,6 @@
       <c r="E15" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="60"/>
       <c r="H15" s="11" t="s">
         <v>44</v>
       </c>
@@ -9883,7 +9907,6 @@
       <c r="E16" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="60"/>
       <c r="H16" s="11" t="s">
         <v>44</v>
       </c>
@@ -9956,7 +9979,6 @@
         <v>22</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="60"/>
       <c r="H17" s="11" t="s">
         <v>44</v>
       </c>
@@ -10029,7 +10051,6 @@
         <v>23</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="60"/>
       <c r="H18" s="11" t="s">
         <v>44</v>
       </c>
@@ -10102,7 +10123,6 @@
         <v>24</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="60"/>
       <c r="H19" s="11" t="s">
         <v>44</v>
       </c>
@@ -10175,7 +10195,6 @@
         <v>25</v>
       </c>
       <c r="E20" s="23"/>
-      <c r="F20" s="60"/>
       <c r="H20" s="11" t="s">
         <v>44</v>
       </c>
@@ -10248,7 +10267,6 @@
         <v>26</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="60"/>
       <c r="H21" s="11" t="s">
         <v>44</v>
       </c>
@@ -10321,7 +10339,6 @@
         <v>27</v>
       </c>
       <c r="E22" s="23"/>
-      <c r="F22" s="60"/>
       <c r="H22" s="11" t="s">
         <v>44</v>
       </c>
@@ -10394,7 +10411,6 @@
         <v>34</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="60"/>
       <c r="H23" s="11" t="s">
         <v>44</v>
       </c>
@@ -10473,7 +10489,9 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="60"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10554,10 +10572,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N433" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14348,7 +14366,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="82" t="s">
         <v>235</v>
@@ -14404,7 +14422,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="82" t="s">
         <v>237</v>
@@ -14460,7 +14478,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="82" t="s">
         <v>239</v>
@@ -14516,7 +14534,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="82" t="s">
         <v>241</v>
@@ -14572,7 +14590,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="82" t="s">
         <v>242</v>
@@ -15907,7 +15925,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="86" t="s">
         <v>266</v>
@@ -17941,7 +17959,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="86" t="s">
         <v>332</v>
@@ -17997,7 +18015,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="86" t="s">
         <v>540</v>
@@ -27282,7 +27300,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="86" t="s">
         <v>543</v>
@@ -30782,11 +30800,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -30799,13 +30817,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="Q328" s="48" t="s">
         <v>1134</v>
@@ -30815,7 +30833,7 @@
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -30868,7 +30886,7 @@
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -30881,23 +30899,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="Q329" s="48" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30950,7 +30968,7 @@
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30963,23 +30981,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -31032,7 +31050,7 @@
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -31045,23 +31063,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -31114,7 +31132,7 @@
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -31127,23 +31145,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -31196,7 +31214,7 @@
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -31209,23 +31227,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -31278,7 +31296,7 @@
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -31291,23 +31309,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="Q334" s="48" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -31360,7 +31378,7 @@
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -31373,23 +31391,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="Q335" s="48" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -31442,7 +31460,7 @@
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -31455,23 +31473,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -31524,7 +31542,7 @@
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -31537,23 +31555,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="Q337" s="48" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -36740,7 +36758,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" s="82" t="s">
         <v>1485</v>
@@ -38056,7 +38074,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1569</v>
+        <v>1764</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1448</v>
@@ -38097,13 +38115,13 @@
         <v>0</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H435" s="5" t="s">
         <v>1567</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K435" s="5">
         <v>-31</v>
@@ -38121,7 +38139,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1569</v>
+        <v>1764</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>1444</v>
@@ -38168,7 +38186,7 @@
         <v>1567</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K436" s="5">
         <v>-31</v>
@@ -38186,10 +38204,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1573</v>
+        <v>1765</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="V436" s="5" t="s">
         <v>553</v>
@@ -38233,7 +38251,7 @@
         <v>1567</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="K437" s="5">
         <v>-31</v>
@@ -38251,7 +38269,7 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1573</v>
+        <v>1765</v>
       </c>
       <c r="Q437" s="10" t="s">
         <v>1443</v>
@@ -38298,7 +38316,7 @@
         <v>1567</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="K438" s="5">
         <v>-31</v>
@@ -38316,7 +38334,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1573</v>
+        <v>1765</v>
       </c>
       <c r="Q438" s="10" t="s">
         <v>1450</v>
@@ -38363,7 +38381,7 @@
         <v>1567</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="K439" s="5">
         <v>-31</v>
@@ -38381,7 +38399,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1578</v>
+        <v>1766</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1445</v>
@@ -38428,7 +38446,7 @@
         <v>1567</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K440" s="5">
         <v>-31</v>
@@ -38446,7 +38464,7 @@
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1578</v>
+        <v>1766</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1446</v>
@@ -38487,10 +38505,10 @@
         <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38508,13 +38526,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38549,10 +38567,10 @@
         <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38570,13 +38588,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38611,10 +38629,10 @@
         <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38632,13 +38650,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38673,10 +38691,10 @@
         <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38694,13 +38712,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38735,10 +38753,10 @@
         <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38756,10 +38774,10 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="V445" s="5" t="s">
         <v>597</v>
@@ -38797,10 +38815,10 @@
         <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38818,7 +38836,7 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="Q446" s="10" t="s">
         <v>1413</v>
@@ -38859,13 +38877,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="69" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="H447" s="69" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="I447" s="69" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="K447" s="69">
         <v>-31</v>
@@ -38886,7 +38904,7 @@
         <v>461</v>
       </c>
       <c r="Q447" s="70" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>597</v>
@@ -38927,13 +38945,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="69" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="H448" s="69" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="I448" s="69" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="K448" s="69">
         <v>-31</v>
@@ -38954,7 +38972,7 @@
         <v>461</v>
       </c>
       <c r="Q448" s="70" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>597</v>
@@ -38992,13 +39010,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="69" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="H449" s="69" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="I449" s="69" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="K449" s="69">
         <v>-31</v>
@@ -39019,7 +39037,7 @@
         <v>461</v>
       </c>
       <c r="Q449" s="70" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>553</v>
@@ -39060,13 +39078,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="71" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="H450" s="71" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="I450" s="71" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="K450" s="71">
         <v>-31</v>
@@ -39087,7 +39105,7 @@
         <v>461</v>
       </c>
       <c r="Q450" s="72" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>553</v>
@@ -39128,13 +39146,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="71" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="H451" s="71" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="I451" s="71" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="K451" s="71">
         <v>-31</v>
@@ -39155,7 +39173,7 @@
         <v>461</v>
       </c>
       <c r="Q451" s="72" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>553</v>
@@ -39193,13 +39211,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="71" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="H452" s="71" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="I452" s="71" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="K452" s="71">
         <v>-31</v>
@@ -39220,7 +39238,7 @@
         <v>461</v>
       </c>
       <c r="Q452" s="72" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>553</v>
@@ -39261,13 +39279,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="69" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="H453" s="69" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="I453" s="69" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="K453" s="69">
         <v>-31</v>
@@ -39288,7 +39306,7 @@
         <v>461</v>
       </c>
       <c r="Q453" s="70" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>553</v>
@@ -39329,13 +39347,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="69" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="H454" s="69" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I454" s="69" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="K454" s="69">
         <v>-31</v>
@@ -39356,7 +39374,7 @@
         <v>461</v>
       </c>
       <c r="Q454" s="70" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>553</v>
@@ -39394,13 +39412,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="69" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="H455" s="69" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="I455" s="69" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="K455" s="69">
         <v>-31</v>
@@ -39421,7 +39439,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1634</v>
+        <v>1767</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -39462,13 +39480,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="71" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="H456" s="71" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="I456" s="71" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="K456" s="71">
         <v>-31</v>
@@ -39489,7 +39507,7 @@
         <v>461</v>
       </c>
       <c r="Q456" s="72" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>553</v>
@@ -39530,13 +39548,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="71" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="H457" s="71" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="I457" s="71" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="K457" s="71">
         <v>-31</v>
@@ -39557,7 +39575,7 @@
         <v>461</v>
       </c>
       <c r="Q457" s="72" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>553</v>
@@ -39595,13 +39613,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="71" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="H458" s="71" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="I458" s="71" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="K458" s="71">
         <v>-31</v>
@@ -39622,7 +39640,7 @@
         <v>461</v>
       </c>
       <c r="Q458" s="72" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>553</v>
@@ -39663,13 +39681,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="69" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="H459" s="69" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="I459" s="69" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="K459" s="69">
         <v>-31</v>
@@ -39690,7 +39708,7 @@
         <v>461</v>
       </c>
       <c r="Q459" s="70" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>553</v>
@@ -39731,13 +39749,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="69" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="H460" s="69" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="I460" s="69" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="K460" s="69">
         <v>-31</v>
@@ -39758,7 +39776,7 @@
         <v>461</v>
       </c>
       <c r="Q460" s="70" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>553</v>
@@ -39796,13 +39814,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="69" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="H461" s="69" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="I461" s="69" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="K461" s="69">
         <v>-31</v>
@@ -39823,7 +39841,7 @@
         <v>461</v>
       </c>
       <c r="Q461" s="70" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>553</v>
@@ -39864,13 +39882,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="71" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="H462" s="71" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="I462" s="71" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="K462" s="71">
         <v>-31</v>
@@ -39891,7 +39909,7 @@
         <v>461</v>
       </c>
       <c r="Q462" s="72" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>553</v>
@@ -39932,13 +39950,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="71" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="H463" s="71" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="I463" s="71" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="K463" s="71">
         <v>-31</v>
@@ -39959,7 +39977,7 @@
         <v>461</v>
       </c>
       <c r="Q463" s="72" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>553</v>
@@ -39997,13 +40015,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="71" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="H464" s="71" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="I464" s="71" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="K464" s="71">
         <v>-31</v>
@@ -40024,7 +40042,7 @@
         <v>461</v>
       </c>
       <c r="Q464" s="72" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>553</v>
@@ -40065,13 +40083,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="69" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="H465" s="69" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="I465" s="69" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="K465" s="69">
         <v>-31</v>
@@ -40092,7 +40110,7 @@
         <v>461</v>
       </c>
       <c r="Q465" s="70" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>553</v>
@@ -40133,13 +40151,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="69" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="H466" s="69" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="I466" s="69" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="K466" s="69">
         <v>-31</v>
@@ -40160,7 +40178,7 @@
         <v>461</v>
       </c>
       <c r="Q466" s="70" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>553</v>
@@ -40198,13 +40216,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="69" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="H467" s="69" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="I467" s="69" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="K467" s="69">
         <v>-31</v>
@@ -40225,7 +40243,7 @@
         <v>461</v>
       </c>
       <c r="Q467" s="70" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>553</v>
@@ -40266,10 +40284,10 @@
         <v>1</v>
       </c>
       <c r="G468" s="73" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="H468" s="73" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="I468" s="73" t="s">
         <v>1117</v>
@@ -40296,7 +40314,7 @@
         <v>1118</v>
       </c>
       <c r="V468" s="73" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="W468" s="73">
         <v>9999999</v>
@@ -40331,13 +40349,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="73" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="H469" s="73" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="I469" s="73" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="K469" s="73">
         <v>-31</v>
@@ -40358,10 +40376,10 @@
         <v>461</v>
       </c>
       <c r="Q469" s="74" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="V469" s="73" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="W469" s="73">
         <v>9999999</v>
@@ -40396,10 +40414,10 @@
         <v>1</v>
       </c>
       <c r="G470" s="73" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="H470" s="73" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="I470" s="73" t="s">
         <v>1318</v>
@@ -40426,7 +40444,7 @@
         <v>857</v>
       </c>
       <c r="V470" s="73" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="W470" s="73">
         <v>9999999</v>
@@ -40461,13 +40479,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="73" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="H471" s="73" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="I471" s="73" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="K471" s="73">
         <v>-31</v>
@@ -40488,10 +40506,10 @@
         <v>461</v>
       </c>
       <c r="Q471" s="74" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="V471" s="73" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="W471" s="73">
         <v>9999999</v>
@@ -40526,13 +40544,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="73" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="H472" s="73" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="I472" s="73" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="K472" s="73">
         <v>-31</v>
@@ -40556,7 +40574,7 @@
         <v>858</v>
       </c>
       <c r="V472" s="73" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="W472" s="73">
         <v>9999999</v>
@@ -40591,13 +40609,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="73" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="H473" s="73" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="I473" s="73" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="K473" s="73">
         <v>-31</v>
@@ -40618,10 +40636,10 @@
         <v>461</v>
       </c>
       <c r="Q473" s="74" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="V473" s="73" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="W473" s="73">
         <v>9999999</v>
@@ -40656,13 +40674,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="75" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="H474" s="75" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="I474" s="75" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="K474" s="75">
         <v>-31</v>
@@ -40683,10 +40701,10 @@
         <v>461</v>
       </c>
       <c r="Q474" s="76" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="V474" s="73" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="W474" s="75">
         <v>9999999</v>
@@ -40721,13 +40739,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="75" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="H475" s="75" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40748,10 +40766,10 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="V475" s="73" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="W475" s="75">
         <v>9999999</v>
@@ -40786,13 +40804,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="80" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="H476" s="80" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="I476" s="80" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="K476" s="80">
         <v>-31</v>
@@ -40804,19 +40822,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="80" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="O476" s="80">
         <v>49800</v>
       </c>
       <c r="P476" s="80" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="Q476" s="81" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="V476" s="80" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="W476" s="80">
         <v>9999999</v>
@@ -40851,13 +40869,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="80" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="I477" s="80" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="K477" s="80">
         <v>-31</v>
@@ -40869,19 +40887,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="80" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="O477" s="80">
         <v>19800</v>
       </c>
       <c r="P477" s="80" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="Q477" s="81" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="V477" s="80" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="W477" s="80">
         <v>9999999</v>
@@ -40916,13 +40934,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="80" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="H478" s="80" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="I478" s="80" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="K478" s="80">
         <v>-31</v>
@@ -40934,16 +40952,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="80" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="O478" s="80">
         <v>9800</v>
       </c>
       <c r="P478" s="80" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="Q478" s="81" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="V478" s="80" t="s">
         <v>553</v>
@@ -40981,13 +40999,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="80" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="H479" s="80" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="I479" s="80" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="K479" s="80">
         <v>-31</v>
@@ -40999,19 +41017,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="80" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="O479" s="80">
         <v>4800</v>
       </c>
       <c r="P479" s="80" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="Q479" s="81" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="V479" s="80" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="W479" s="80">
         <v>9999999</v>
@@ -41809,7 +41827,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41823,7 +41841,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41837,7 +41855,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41851,7 +41869,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41865,7 +41883,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41879,7 +41897,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41893,7 +41911,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41907,7 +41925,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41921,7 +41939,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41935,7 +41953,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41949,7 +41967,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41963,7 +41981,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41977,7 +41995,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -41991,7 +42009,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>

--- a/config_12.01/shoping_config_cjj.xlsx
+++ b/config_12.01/shoping_config_cjj.xlsx
@@ -7356,14 +7356,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7629,6 +7621,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10572,10 +10572,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N433" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30800,11 +30800,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -30817,13 +30817,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="Q328" s="48" t="s">
         <v>1134</v>
@@ -30833,7 +30833,7 @@
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -30886,7 +30886,7 @@
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -30899,23 +30899,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="Q329" s="48" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30968,7 +30968,7 @@
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30981,23 +30981,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -31050,7 +31050,7 @@
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -31063,23 +31063,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -31132,7 +31132,7 @@
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -31145,23 +31145,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -31214,7 +31214,7 @@
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -31227,23 +31227,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -31296,7 +31296,7 @@
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -31309,23 +31309,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="Q334" s="48" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -31378,7 +31378,7 @@
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -31391,23 +31391,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="Q335" s="48" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -31460,7 +31460,7 @@
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -31473,23 +31473,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -31542,7 +31542,7 @@
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -31555,23 +31555,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="Q337" s="48" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -38074,7 +38074,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1448</v>
@@ -38139,7 +38139,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>1444</v>
@@ -38204,7 +38204,7 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q436" s="10" t="s">
         <v>1572</v>
@@ -38269,7 +38269,7 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q437" s="10" t="s">
         <v>1443</v>
@@ -38334,7 +38334,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q438" s="10" t="s">
         <v>1450</v>
@@ -38399,7 +38399,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1445</v>
@@ -38464,7 +38464,7 @@
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1446</v>
@@ -39439,7 +39439,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -40745,7 +40745,7 @@
         <v>1680</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1699</v>
+        <v>1766</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40766,7 +40766,7 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1700</v>
+        <v>1767</v>
       </c>
       <c r="V475" s="73" t="s">
         <v>1689</v>
@@ -40804,13 +40804,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="80" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H476" s="80" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I476" s="80" t="s">
         <v>1746</v>
-      </c>
-      <c r="H476" s="80" t="s">
-        <v>1747</v>
-      </c>
-      <c r="I476" s="80" t="s">
-        <v>1748</v>
       </c>
       <c r="K476" s="80">
         <v>-31</v>
@@ -40822,19 +40822,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="80" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O476" s="80">
         <v>49800</v>
       </c>
       <c r="P476" s="80" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Q476" s="81" t="s">
+        <v>1749</v>
+      </c>
+      <c r="V476" s="80" t="s">
         <v>1750</v>
-      </c>
-      <c r="Q476" s="81" t="s">
-        <v>1751</v>
-      </c>
-      <c r="V476" s="80" t="s">
-        <v>1752</v>
       </c>
       <c r="W476" s="80">
         <v>9999999</v>
@@ -40869,13 +40869,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="80" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="I477" s="80" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="K477" s="80">
         <v>-31</v>
@@ -40887,19 +40887,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="80" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O477" s="80">
         <v>19800</v>
       </c>
       <c r="P477" s="80" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Q477" s="81" t="s">
+        <v>1753</v>
+      </c>
+      <c r="V477" s="80" t="s">
         <v>1750</v>
-      </c>
-      <c r="Q477" s="81" t="s">
-        <v>1755</v>
-      </c>
-      <c r="V477" s="80" t="s">
-        <v>1752</v>
       </c>
       <c r="W477" s="80">
         <v>9999999</v>
@@ -40934,13 +40934,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="80" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H478" s="80" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="I478" s="80" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="K478" s="80">
         <v>-31</v>
@@ -40952,16 +40952,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="80" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O478" s="80">
         <v>9800</v>
       </c>
       <c r="P478" s="80" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q478" s="81" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="V478" s="80" t="s">
         <v>553</v>
@@ -40999,13 +40999,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="80" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H479" s="80" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="I479" s="80" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="K479" s="80">
         <v>-31</v>
@@ -41017,19 +41017,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="80" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O479" s="80">
         <v>4800</v>
       </c>
       <c r="P479" s="80" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q479" s="81" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="V479" s="80" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="W479" s="80">
         <v>9999999</v>
@@ -41827,7 +41827,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41841,7 +41841,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41855,7 +41855,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41869,7 +41869,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41883,7 +41883,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41897,7 +41897,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41911,7 +41911,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41925,7 +41925,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41939,7 +41939,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41953,7 +41953,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41967,7 +41967,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41981,7 +41981,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41995,7 +41995,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -42009,7 +42009,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>
